--- a/config/风电机组状态映射.xlsx
+++ b/config/风电机组状态映射.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheer/R/forecast/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCF1CAB-2837-D24B-87E9-92A7D7616EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63113487-8737-0349-99D4-D6221B15ADF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940" xr2:uid="{E0A5A97B-CBDF-4549-974A-8782FAEA4906}"/>
+    <workbookView xWindow="280" yWindow="660" windowWidth="28240" windowHeight="16940" activeTab="1" xr2:uid="{E0A5A97B-CBDF-4549-974A-8782FAEA4906}"/>
   </bookViews>
   <sheets>
-    <sheet name="依兰" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="依兰" sheetId="1" r:id="rId2"/>
     <sheet name="基础配置" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>TR001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,46 @@
   </si>
   <si>
     <t>待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏航解缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非电网故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无故障维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程停机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超风速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外温度高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外温度低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,8 +370,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,17 +689,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDC5243-6360-8A48-B1D9-7FC131E66259}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>73</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>73</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>73</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>73</v>
+      </c>
+      <c r="B7" s="10">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10">
+        <v>73</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10">
+        <v>73</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10">
+        <v>73</v>
+      </c>
+      <c r="B10" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10">
+        <v>73</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10">
+        <v>73</v>
+      </c>
+      <c r="B13" s="10">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10">
+        <v>73</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D44A5F-F350-2348-9534-D3F042CA27FA}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -721,7 +937,7 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="10">
@@ -924,19 +1140,6 @@
     <row r="14" spans="1:9" ht="16" customHeight="1"/>
     <row r="15" spans="1:9" ht="17" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDC5243-6360-8A48-B1D9-7FC131E66259}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1013,16 +1216,16 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="14">
         <v>301</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <v>300</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1039,10 +1242,10 @@
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="17">
       <c r="A5" s="3">
@@ -1057,16 +1260,16 @@
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="14">
         <v>201</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <v>200</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1083,10 +1286,10 @@
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="17">
       <c r="A7" s="3">
@@ -1101,10 +1304,10 @@
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="17">
       <c r="A8" s="3">
@@ -1119,10 +1322,10 @@
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="17">
       <c r="A9" s="3">
@@ -1137,16 +1340,16 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>701</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>700</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1163,10 +1366,10 @@
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="17">
       <c r="A11" s="3">
@@ -1185,10 +1388,10 @@
       <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>400</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1211,8 +1414,8 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="17">
       <c r="A13" s="3">
@@ -1227,14 +1430,14 @@
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="14">
         <v>403</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="17">
       <c r="A14" s="3">
@@ -1249,10 +1452,10 @@
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="17">
       <c r="A15" s="3">
@@ -1267,16 +1470,16 @@
       <c r="E15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="14">
         <v>601</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <v>600</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1287,10 +1490,10 @@
       <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="4:9" ht="17">
       <c r="D17" s="6">
@@ -1314,7 +1517,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H11:H14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="G9:G10"/>
@@ -1334,6 +1536,7 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
